--- a/import/input.xlsx
+++ b/import/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\shenme-spider\spider\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\shenme-spider\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A370-74A3-46E7-ABFD-855E5FC2C883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91D059B-C57E-42E1-B578-8B2E499E5E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +31,26 @@
   </si>
   <si>
     <t>旅法师营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcores.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址（为*的话，就是全部匹配）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,28 +385,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482ED5D4-7568-4472-814D-47DFA1BD1AEC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
